--- a/data/trans_bre/P71_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,69</t>
+          <t>2,73; 12,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,16</t>
+          <t>-9,36; 3,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 5,09</t>
+          <t>-8,03; 5,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 11,3</t>
+          <t>-5,38; 11,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,19; 110,24</t>
+          <t>17,7; 117,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 11,93</t>
+          <t>-29,56; 11,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 19,57</t>
+          <t>-24,41; 20,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 106,9</t>
+          <t>-28,49; 115,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 8,75</t>
+          <t>-0,09; 8,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,97</t>
+          <t>-1,59; 8,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 2,85</t>
+          <t>-8,13; 2,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 13,36</t>
+          <t>-1,11; 13,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 59,34</t>
+          <t>-0,54; 55,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 32,85</t>
+          <t>-4,93; 32,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 8,73</t>
+          <t>-21,68; 9,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 122,08</t>
+          <t>-9,85; 123,66</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 15,08</t>
+          <t>6,39; 15,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 5,77</t>
+          <t>-5,28; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,43</t>
+          <t>-0,7; 9,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,96</t>
+          <t>-3,87; 3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,64; 114,22</t>
+          <t>35,94; 121,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 18,08</t>
+          <t>-14,17; 17,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 31,51</t>
+          <t>-1,77; 32,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 34,68</t>
+          <t>-23,91; 33,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,48</t>
+          <t>5,25; 15,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 6,03</t>
+          <t>-6,09; 6,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 9,12</t>
+          <t>-2,3; 9,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,04</t>
+          <t>-1,3; 6,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,09; 117,05</t>
+          <t>28,8; 119,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 19,59</t>
+          <t>-16,67; 19,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 25,62</t>
+          <t>-5,18; 27,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 69,07</t>
+          <t>-9,37; 64,31</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,44</t>
+          <t>-0,31; 11,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 6,21</t>
+          <t>-7,56; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 9,37</t>
+          <t>-3,74; 9,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,88</t>
+          <t>-1,1; 6,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 57,47</t>
+          <t>-1,68; 59,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 23,34</t>
+          <t>-22,82; 20,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 28,75</t>
+          <t>-9,76; 28,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 48,79</t>
+          <t>-5,6; 46,17</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,98; 19,87</t>
+          <t>7,85; 19,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,49</t>
+          <t>-0,67; 9,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 10,33</t>
+          <t>0,0; 10,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 7,66</t>
+          <t>-0,59; 7,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,9; 84,17</t>
+          <t>26,49; 83,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 43,8</t>
+          <t>-2,41; 45,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 39,85</t>
+          <t>-0,05; 40,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 91,74</t>
+          <t>-2,36; 88,79</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,73; 11,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,37</t>
+          <t>-1,24; 3,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,54</t>
+          <t>-0,17; 4,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,89</t>
+          <t>0,74; 4,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,6; 68,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 11,49</t>
+          <t>-3,94; 10,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 13,87</t>
+          <t>-0,45; 13,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 39,87</t>
+          <t>4,75; 38,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,69</t>
+          <t>2,8; 13,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 3,09</t>
+          <t>-8,71; 2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 5,12</t>
+          <t>-7,63; 4,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 117,49</t>
+          <t>17,0; 114,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 11,31</t>
+          <t>-27,18; 11,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 20,22</t>
+          <t>-23,19; 18,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 8,52</t>
+          <t>-0,28; 8,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 8,9</t>
+          <t>-1,34; 9,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 2,96</t>
+          <t>-8,23; 2,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 55,22</t>
+          <t>-1,71; 56,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 32,78</t>
+          <t>-4,35; 32,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 9,17</t>
+          <t>-21,43; 8,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 15,33</t>
+          <t>5,87; 14,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,73</t>
+          <t>-4,85; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 9,52</t>
+          <t>-0,81; 9,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,94; 121,89</t>
+          <t>33,45; 111,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 17,78</t>
+          <t>-12,77; 17,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 32,32</t>
+          <t>-2,17; 33,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 15,7</t>
+          <t>4,99; 15,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 6,12</t>
+          <t>-5,26; 6,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,39</t>
+          <t>-2,33; 8,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,8; 119,25</t>
+          <t>26,28; 111,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 19,75</t>
+          <t>-14,85; 20,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 27,28</t>
+          <t>-5,45; 24,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,63</t>
+          <t>-0,33; 11,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 5,57</t>
+          <t>-6,92; 6,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 9,19</t>
+          <t>-3,36; 9,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 59,23</t>
+          <t>-1,3; 56,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 20,69</t>
+          <t>-21,54; 22,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 28,94</t>
+          <t>-9,31; 28,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 19,62</t>
+          <t>8,32; 19,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,86</t>
+          <t>-0,64; 9,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,39</t>
+          <t>0,27; 10,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,49; 83,37</t>
+          <t>28,09; 83,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 45,62</t>
+          <t>-2,31; 44,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 40,21</t>
+          <t>0,97; 41,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,82</t>
+          <t>7,8; 11,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,19</t>
+          <t>-1,1; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,44</t>
+          <t>-0,2; 4,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,6; 68,52</t>
+          <t>41,63; 70,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,76</t>
+          <t>-3,44; 10,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 13,84</t>
+          <t>-0,59; 13,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P71_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 13,08</t>
+          <t>2,96; 12,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 2,84</t>
+          <t>-9,07; 3,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 4,77</t>
+          <t>-6,95; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 11,02</t>
+          <t>-5,29; 11,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,0; 114,77</t>
+          <t>18,19; 110,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 11,29</t>
+          <t>-29,69; 11,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 18,75</t>
+          <t>-21,52; 19,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 115,62</t>
+          <t>-29,25; 106,9</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,74</t>
+          <t>-0,7; 8,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 9,04</t>
+          <t>-1,67; 8,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 2,95</t>
+          <t>-8,25; 2,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 13,72</t>
+          <t>-1,5; 13,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 56,71</t>
+          <t>-3,81; 59,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 32,44</t>
+          <t>-4,97; 32,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 8,92</t>
+          <t>-22,33; 8,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 123,66</t>
+          <t>-11,41; 122,08</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 14,68</t>
+          <t>6,51; 15,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 5,64</t>
+          <t>-4,15; 5,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 9,98</t>
+          <t>-1,4; 9,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,98</t>
+          <t>-4,18; 3,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,45; 111,82</t>
+          <t>37,64; 114,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 17,73</t>
+          <t>-10,96; 18,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 33,79</t>
+          <t>-3,81; 31,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 33,41</t>
+          <t>-25,96; 34,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 15,22</t>
+          <t>5,06; 15,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,23</t>
+          <t>-5,55; 6,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,82</t>
+          <t>-2,13; 9,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,46</t>
+          <t>-1,26; 7,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 111,32</t>
+          <t>27,09; 117,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 20,16</t>
+          <t>-15,24; 19,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 24,4</t>
+          <t>-5,09; 25,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 64,31</t>
+          <t>-10,21; 69,07</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 11,49</t>
+          <t>-0,96; 11,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 6,13</t>
+          <t>-6,77; 6,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 9,02</t>
+          <t>-4,18; 9,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,81</t>
+          <t>-1,36; 6,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 56,11</t>
+          <t>-3,22; 57,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 22,38</t>
+          <t>-20,29; 23,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 28,1</t>
+          <t>-10,8; 28,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 46,17</t>
+          <t>-6,92; 48,79</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 19,65</t>
+          <t>8,98; 19,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,67</t>
+          <t>-1,13; 9,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 10,79</t>
+          <t>0,03; 10,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 7,69</t>
+          <t>0,09; 7,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,09; 83,73</t>
+          <t>29,9; 84,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 44,91</t>
+          <t>-3,81; 43,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 41,37</t>
+          <t>0,38; 39,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 88,79</t>
+          <t>4,45; 91,74</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,99</t>
+          <t>7,74; 11,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,1</t>
+          <t>-1,36; 3,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,44</t>
+          <t>-0,0; 4,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,79</t>
+          <t>0,65; 4,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,63; 70,04</t>
+          <t>41,09; 70,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 10,47</t>
+          <t>-4,36; 11,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 13,64</t>
+          <t>-0,12; 13,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 38,99</t>
+          <t>4,23; 39,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>42,51%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 11,3</t>
+          <t>-2,93; 14,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 106,9</t>
+          <t>-19,85; 143,6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>105,37%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 13,36</t>
+          <t>0,46; 40,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 122,08</t>
+          <t>1,65; 396,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,96</t>
+          <t>-5,2; 3,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 34,68</t>
+          <t>-32,81; 27,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>57,68%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,04</t>
+          <t>0,18; 11,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 69,07</t>
+          <t>-0,33; 232,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>15,82%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,88</t>
+          <t>-1,54; 6,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 48,79</t>
+          <t>-7,13; 47,7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>74,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>-18,33%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,98; 19,87</t>
+          <t>10,17; 23,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,49</t>
+          <t>-2,93; 11,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 10,33</t>
+          <t>-4,31; 9,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 7,66</t>
+          <t>-8,14; 3,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,9; 84,17</t>
+          <t>38,3; 122,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 43,8</t>
+          <t>-11,16; 60,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 39,85</t>
+          <t>-13,58; 37,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 91,74</t>
+          <t>-69,64; 36,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>120,42%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,31; 19,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 11,09</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 15,32</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 14,17</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 70,44</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 47,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 61,13</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>60,34; 213,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,74</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>53,89%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>7,74; 11,97</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-1,36; 3,37</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,0; 4,54</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 4,89</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 10,59</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>41,09; 70,69</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-4,36; 11,49</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-0,12; 13,87</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 39,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 95,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P71_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,69</t>
+          <t>3,23; 12,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,16</t>
+          <t>-9,88; 2,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 5,09</t>
+          <t>-7,56; 4,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 14,14</t>
+          <t>-2,3; 13,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,19; 110,24</t>
+          <t>19,17; 111,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 11,93</t>
+          <t>-30,24; 10,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 19,57</t>
+          <t>-23,34; 17,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 143,6</t>
+          <t>-17,21; 155,11</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 8,75</t>
+          <t>0,15; 9,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,97</t>
+          <t>-1,25; 8,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 2,85</t>
+          <t>-8,19; 3,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 40,13</t>
+          <t>-0,06; 43,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 59,34</t>
+          <t>0,45; 61,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 32,85</t>
+          <t>-3,64; 33,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 8,73</t>
+          <t>-21,98; 11,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 396,61</t>
+          <t>-0,76; 424,46</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 15,08</t>
+          <t>6,04; 14,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 5,77</t>
+          <t>-4,65; 6,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,43</t>
+          <t>-1,15; 9,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 3,31</t>
+          <t>-4,78; 3,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,64; 114,22</t>
+          <t>35,59; 116,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 18,08</t>
+          <t>-12,66; 19,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 31,51</t>
+          <t>-3,08; 31,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 27,83</t>
+          <t>-31,42; 32,77</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,48</t>
+          <t>5,38; 15,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 6,03</t>
+          <t>-5,39; 6,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 9,12</t>
+          <t>-2,14; 8,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 11,37</t>
+          <t>0,56; 11,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,09; 117,05</t>
+          <t>29,04; 118,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 19,59</t>
+          <t>-15,39; 20,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 25,62</t>
+          <t>-5,13; 24,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 232,82</t>
+          <t>4,43; 272,43</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,44</t>
+          <t>-0,36; 11,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 6,21</t>
+          <t>-7,17; 5,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 9,37</t>
+          <t>-3,43; 9,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,7</t>
+          <t>-1,22; 6,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 57,47</t>
+          <t>-1,54; 56,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 23,34</t>
+          <t>-21,11; 20,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 28,75</t>
+          <t>-8,74; 31,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 47,7</t>
+          <t>-6,54; 44,46</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 23,91</t>
+          <t>10,8; 24,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 11,14</t>
+          <t>-2,67; 11,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 9,21</t>
+          <t>-4,64; 9,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 3,42</t>
+          <t>-8,66; 3,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,3; 122,58</t>
+          <t>40,96; 124,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 60,74</t>
+          <t>-10,23; 63,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 37,56</t>
+          <t>-13,9; 37,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,64; 36,77</t>
+          <t>-72,56; 36,46</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 19,1</t>
+          <t>1,4; 19,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 11,09</t>
+          <t>-4,51; 11,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 15,32</t>
+          <t>-0,27; 15,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 14,17</t>
+          <t>6,34; 14,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 70,44</t>
+          <t>3,35; 74,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 47,63</t>
+          <t>-13,62; 52,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 61,13</t>
+          <t>-0,74; 62,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60,34; 213,28</t>
+          <t>54,72; 208,12</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,84; 11,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,37</t>
+          <t>-1,16; 3,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,54</t>
+          <t>0,09; 4,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,59</t>
+          <t>1,41; 9,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,78; 69,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 11,49</t>
+          <t>-3,67; 12,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 13,87</t>
+          <t>0,3; 14,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,05; 95,38</t>
+          <t>9,46; 83,51</t>
         </is>
       </c>
     </row>
